--- a/test_videos_with_labels/done/GX010106_labels.xlsx
+++ b/test_videos_with_labels/done/GX010106_labels.xlsx
@@ -5,13 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_video_results_augmented_mobile\tests\GX010106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_videos_with_labels\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22756324-D7DC-44C5-86C7-1D451C37AB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E5CC30-197A-40A6-B699-B6E30E7A30EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3015" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="38400" yWindow="2640" windowWidth="28800" windowHeight="15435" xr2:uid="{6DB90D85-1B51-425A-BF9E-F1B146275295}"/>
+    <workbookView xWindow="38400" yWindow="2250" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -383,11 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1026" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1029" sqref="B1029"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="220" zoomScaleNormal="220" workbookViewId="1">
-      <selection activeCell="M4" sqref="J1:M4"/>
+    <sheetView tabSelected="1" topLeftCell="A1303" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1319" sqref="F1319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,7 +2414,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,7 +2422,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,7 +2430,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2442,7 +2438,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2446,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,7 +2454,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,7 +2462,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2474,7 +2470,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2482,7 +2478,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2490,7 +2486,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2498,7 +2494,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2506,7 +2502,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
